--- a/NRHM/Maharashtra/Nagpur/2015-16/Scripts/Preprocessing/Output/Cleaned/KAMPTEE/PHC - Summary.xlsx
+++ b/NRHM/Maharashtra/Nagpur/2015-16/Scripts/Preprocessing/Output/Cleaned/KAMPTEE/PHC - Summary.xlsx
@@ -143,16 +143,13 @@
     <t>Deaths</t>
   </si>
   <si>
-    <t>Maternal Deaths</t>
-  </si>
-  <si>
     <t>Public Institutions</t>
   </si>
   <si>
-    <t>Details</t>
+    <t>Private Institutions</t>
   </si>
   <si>
-    <t>Private Institutions</t>
+    <t>Details</t>
   </si>
   <si>
     <t xml:space="preserve">Pregnancy Outcome </t>
@@ -227,6 +224,9 @@
     <t>Adolescent/Adult deaths by cause</t>
   </si>
   <si>
+    <t>Maternal Deaths</t>
+  </si>
+  <si>
     <t>Number of Infants 0 to 11 months old who received</t>
   </si>
   <si>
@@ -290,13 +290,13 @@
     <t>Number of mothers paid JSY incentive for Home deliveries</t>
   </si>
   <si>
-    <t>JSY Incentive paid to</t>
-  </si>
-  <si>
     <t xml:space="preserve">Deliveries conducted at Public Institutions </t>
   </si>
   <si>
     <t>Of which Number discharged under 48 hours of delivery</t>
+  </si>
+  <si>
+    <t>JSY Incentive paid to</t>
   </si>
   <si>
     <t>Number of Deliveries  at accredited Private Institutions</t>
@@ -1993,198 +1993,198 @@
     <row r="19" spans="1:17">
       <c r="A19" s="1"/>
       <c r="B19" s="1"/>
-      <c r="C19" s="1"/>
+      <c r="C19" s="1" t="s">
+        <v>42</v>
+      </c>
       <c r="D19" s="1" t="s">
         <v>91</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="F19">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="G19">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="H19">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="I19">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="J19">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="K19">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="L19">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="M19">
+        <v>7</v>
+      </c>
+      <c r="N19">
+        <v>9</v>
+      </c>
+      <c r="O19">
         <v>5</v>
       </c>
-      <c r="N19">
-        <v>1</v>
-      </c>
-      <c r="O19">
-        <v>3</v>
-      </c>
       <c r="P19">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="Q19">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="20" spans="1:17">
       <c r="A20" s="1"/>
       <c r="B20" s="1"/>
       <c r="C20" s="1"/>
-      <c r="D20" s="1"/>
+      <c r="D20" s="1" t="s">
+        <v>92</v>
+      </c>
       <c r="E20" s="1" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="F20">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="G20">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="H20">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="I20">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J20">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="K20">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="L20">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="M20">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="N20">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="O20">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="P20">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="Q20">
-        <v>18</v>
+        <v>1</v>
       </c>
     </row>
     <row r="21" spans="1:17">
       <c r="A21" s="1"/>
       <c r="B21" s="1"/>
       <c r="C21" s="1"/>
-      <c r="D21" s="1"/>
+      <c r="D21" s="1" t="s">
+        <v>93</v>
+      </c>
       <c r="E21" s="1" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="F21">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G21">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I21">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J21">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K21">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="L21">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M21">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="N21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O21">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="P21">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="Q21">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="22" spans="1:17">
       <c r="A22" s="1"/>
       <c r="B22" s="1"/>
-      <c r="C22" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="D22" s="1" t="s">
-        <v>92</v>
-      </c>
+      <c r="C22" s="1"/>
+      <c r="D22" s="1"/>
       <c r="E22" s="1" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="F22">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G22">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="H22">
         <v>7</v>
       </c>
       <c r="I22">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="J22">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="K22">
         <v>6</v>
       </c>
       <c r="L22">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="M22">
+        <v>16</v>
+      </c>
+      <c r="N22">
         <v>7</v>
       </c>
-      <c r="N22">
+      <c r="O22">
         <v>9</v>
       </c>
-      <c r="O22">
-        <v>5</v>
-      </c>
       <c r="P22">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="Q22">
-        <v>7</v>
+        <v>18</v>
       </c>
     </row>
     <row r="23" spans="1:17">
       <c r="A23" s="1"/>
       <c r="B23" s="1"/>
       <c r="C23" s="1"/>
-      <c r="D23" s="1" t="s">
-        <v>93</v>
-      </c>
+      <c r="D23" s="1"/>
       <c r="E23" s="1" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="F23">
         <v>0</v>
@@ -2205,13 +2205,13 @@
         <v>0</v>
       </c>
       <c r="L23">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M23">
         <v>0</v>
       </c>
       <c r="N23">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -2220,18 +2220,20 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:17">
       <c r="A24" s="1"/>
       <c r="B24" s="1"/>
-      <c r="C24" s="1"/>
+      <c r="C24" s="1" t="s">
+        <v>43</v>
+      </c>
       <c r="D24" s="1" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="F24">
         <v>0</v>
@@ -2274,9 +2276,11 @@
       <c r="A25" s="1"/>
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
-      <c r="D25" s="1"/>
+      <c r="D25" s="1" t="s">
+        <v>93</v>
+      </c>
       <c r="E25" s="1" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="F25">
         <v>0</v>
@@ -2303,7 +2307,7 @@
         <v>0</v>
       </c>
       <c r="N25">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O25">
         <v>0</v>
@@ -2321,7 +2325,7 @@
       <c r="C26" s="1"/>
       <c r="D26" s="1"/>
       <c r="E26" s="1" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="F26">
         <v>0</v>
@@ -2348,7 +2352,7 @@
         <v>0</v>
       </c>
       <c r="N26">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O26">
         <v>0</v>
@@ -2363,14 +2367,10 @@
     <row r="27" spans="1:17">
       <c r="A27" s="1"/>
       <c r="B27" s="1"/>
-      <c r="C27" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="D27" s="1" t="s">
-        <v>94</v>
-      </c>
+      <c r="C27" s="1"/>
+      <c r="D27" s="1"/>
       <c r="E27" s="1" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="F27">
         <v>0</v>
@@ -2415,7 +2415,7 @@
         <v>30</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D28" s="1" t="s">
         <v>95</v>
@@ -2652,7 +2652,7 @@
       <c r="A33" s="1"/>
       <c r="B33" s="1"/>
       <c r="C33" s="1" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D33" s="1" t="s">
         <v>100</v>
@@ -2703,7 +2703,7 @@
         <v>17</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D34" s="1" t="s">
         <v>101</v>
@@ -2940,7 +2940,7 @@
       <c r="A39" s="1"/>
       <c r="B39" s="1"/>
       <c r="C39" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D39" s="1" t="s">
         <v>106</v>
@@ -3085,7 +3085,7 @@
         <v>19</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D42" s="1" t="s">
         <v>109</v>
@@ -3322,7 +3322,7 @@
       <c r="A47" s="1"/>
       <c r="B47" s="1"/>
       <c r="C47" s="1" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D47" s="1" t="s">
         <v>113</v>
@@ -3371,7 +3371,7 @@
       <c r="A48" s="1"/>
       <c r="B48" s="1"/>
       <c r="C48" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D48" s="1" t="s">
         <v>114</v>
@@ -3708,7 +3708,7 @@
         <v>27</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D55" s="1" t="s">
         <v>121</v>
@@ -3851,7 +3851,7 @@
       <c r="A58" s="1"/>
       <c r="B58" s="1"/>
       <c r="C58" s="1" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D58" s="1" t="s">
         <v>124</v>
@@ -3902,7 +3902,7 @@
         <v>29</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D59" s="1" t="s">
         <v>101</v>
@@ -4094,10 +4094,10 @@
         <v>32</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D63" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E63" s="1" t="s">
         <v>109</v>
@@ -4324,7 +4324,7 @@
       <c r="B68" s="1"/>
       <c r="C68" s="1"/>
       <c r="D68" s="1" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="E68" s="1" t="s">
         <v>231</v>
@@ -4370,10 +4370,10 @@
       <c r="A69" s="1"/>
       <c r="B69" s="1"/>
       <c r="C69" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D69" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E69" s="1" t="s">
         <v>109</v>
@@ -4600,7 +4600,7 @@
       <c r="B74" s="1"/>
       <c r="C74" s="1"/>
       <c r="D74" s="1" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="E74" s="1" t="s">
         <v>231</v>
@@ -4646,10 +4646,10 @@
       <c r="A75" s="1"/>
       <c r="B75" s="1"/>
       <c r="C75" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D75" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E75" s="1" t="s">
         <v>109</v>
@@ -4876,7 +4876,7 @@
       <c r="B80" s="1"/>
       <c r="C80" s="1"/>
       <c r="D80" s="1" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="E80" s="1" t="s">
         <v>231</v>
@@ -4922,10 +4922,10 @@
       <c r="A81" s="1"/>
       <c r="B81" s="1"/>
       <c r="C81" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D81" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E81" s="1" t="s">
         <v>109</v>
@@ -5152,7 +5152,7 @@
       <c r="B86" s="1"/>
       <c r="C86" s="1"/>
       <c r="D86" s="1" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="E86" s="1" t="s">
         <v>100</v>
@@ -5198,10 +5198,10 @@
       <c r="A87" s="1"/>
       <c r="B87" s="1"/>
       <c r="C87" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D87" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E87" s="1" t="s">
         <v>232</v>
@@ -5473,7 +5473,7 @@
       <c r="B93" s="1"/>
       <c r="C93" s="1"/>
       <c r="D93" s="1" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="E93" s="1" t="s">
         <v>100</v>
@@ -5520,7 +5520,7 @@
       <c r="B94" s="1"/>
       <c r="C94" s="1"/>
       <c r="D94" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E94" s="1" t="s">
         <v>235</v>
@@ -5746,7 +5746,7 @@
       <c r="A99" s="1"/>
       <c r="B99" s="1"/>
       <c r="C99" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D99" s="1" t="s">
         <v>126</v>
@@ -7444,7 +7444,7 @@
       <c r="A135" s="1"/>
       <c r="B135" s="1"/>
       <c r="C135" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D135" s="1" t="s">
         <v>152</v>
@@ -7541,7 +7541,7 @@
       <c r="B137" s="1"/>
       <c r="C137" s="1"/>
       <c r="D137" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E137" s="1" t="s">
         <v>226</v>
@@ -7587,7 +7587,7 @@
       <c r="A138" s="1"/>
       <c r="B138" s="1"/>
       <c r="C138" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D138" s="1" t="s">
         <v>154</v>
@@ -9019,7 +9019,7 @@
       <c r="A168" s="1"/>
       <c r="B168" s="1"/>
       <c r="C168" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D168" s="1" t="s">
         <v>101</v>
@@ -9487,7 +9487,7 @@
       <c r="A178" s="1"/>
       <c r="B178" s="1"/>
       <c r="C178" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D178" s="1" t="s">
         <v>184</v>
@@ -9536,7 +9536,7 @@
       <c r="A179" s="1"/>
       <c r="B179" s="1"/>
       <c r="C179" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D179" s="1" t="s">
         <v>185</v>
@@ -9679,7 +9679,7 @@
       <c r="A182" s="1"/>
       <c r="B182" s="1"/>
       <c r="C182" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D182" s="1" t="s">
         <v>188</v>
@@ -9824,7 +9824,7 @@
         <v>31</v>
       </c>
       <c r="C185" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D185" s="1" t="s">
         <v>191</v>
@@ -9920,7 +9920,7 @@
       <c r="A187" s="1"/>
       <c r="B187" s="1"/>
       <c r="C187" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D187" s="1" t="s">
         <v>101</v>
@@ -10290,7 +10290,7 @@
       <c r="A195" s="1"/>
       <c r="B195" s="1"/>
       <c r="C195" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D195" s="1" t="s">
         <v>196</v>
@@ -10339,7 +10339,7 @@
       <c r="A196" s="1"/>
       <c r="B196" s="1"/>
       <c r="C196" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D196" s="1" t="s">
         <v>101</v>
@@ -10529,7 +10529,7 @@
       <c r="A200" s="1"/>
       <c r="B200" s="1"/>
       <c r="C200" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D200" s="1" t="s">
         <v>197</v>
@@ -10725,7 +10725,7 @@
       <c r="A204" s="1"/>
       <c r="B204" s="1"/>
       <c r="C204" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D204" s="1" t="s">
         <v>201</v>
@@ -11139,7 +11139,7 @@
       <c r="B213" s="1"/>
       <c r="C213" s="1"/>
       <c r="D213" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E213" s="1" t="s">
         <v>245</v>
@@ -11275,7 +11275,7 @@
       <c r="A216" s="1"/>
       <c r="B216" s="1"/>
       <c r="C216" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D216" s="1" t="s">
         <v>204</v>
@@ -11826,7 +11826,7 @@
       <c r="B228" s="1"/>
       <c r="C228" s="1"/>
       <c r="D228" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E228" s="1" t="s">
         <v>248</v>
@@ -11964,7 +11964,7 @@
         <v>18</v>
       </c>
       <c r="C231" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D231" s="1" t="s">
         <v>207</v>
@@ -13968,7 +13968,7 @@
       <c r="A275" s="1"/>
       <c r="B275" s="1"/>
       <c r="C275" s="1" t="s">
-        <v>42</v>
+        <v>69</v>
       </c>
       <c r="D275" s="1" t="s">
         <v>217</v>
@@ -15065,7 +15065,7 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="110">
+  <mergeCells count="111">
     <mergeCell ref="A2:A152"/>
     <mergeCell ref="A203:A298"/>
     <mergeCell ref="A159:A202"/>
@@ -15092,11 +15092,11 @@
     <mergeCell ref="C10:C11"/>
     <mergeCell ref="C12:C13"/>
     <mergeCell ref="C141:C143"/>
-    <mergeCell ref="C14:C21"/>
+    <mergeCell ref="C14:C18"/>
     <mergeCell ref="C144:C152"/>
     <mergeCell ref="C175:C177"/>
-    <mergeCell ref="C275:C298"/>
-    <mergeCell ref="C22:C26"/>
+    <mergeCell ref="C19:C23"/>
+    <mergeCell ref="C24:C27"/>
     <mergeCell ref="C153:C158"/>
     <mergeCell ref="C28:C32"/>
     <mergeCell ref="C159:C167"/>
@@ -15125,12 +15125,13 @@
     <mergeCell ref="C187:C194"/>
     <mergeCell ref="C99:C105"/>
     <mergeCell ref="C231:C274"/>
+    <mergeCell ref="C275:C298"/>
     <mergeCell ref="C106:C122"/>
     <mergeCell ref="C123:C126"/>
     <mergeCell ref="C127:C128"/>
     <mergeCell ref="C129:C134"/>
-    <mergeCell ref="D19:D21"/>
-    <mergeCell ref="D24:D26"/>
+    <mergeCell ref="D21:D23"/>
+    <mergeCell ref="D25:D27"/>
     <mergeCell ref="D63:D67"/>
     <mergeCell ref="D69:D73"/>
     <mergeCell ref="D75:D79"/>
@@ -15860,53 +15861,53 @@
       <c r="P3" s="1"/>
       <c r="Q3" s="1"/>
       <c r="R3" s="1"/>
-      <c r="S3" s="1"/>
+      <c r="S3" s="1" t="s">
+        <v>42</v>
+      </c>
       <c r="T3" s="1"/>
       <c r="U3" s="1"/>
-      <c r="V3" s="1" t="s">
+      <c r="V3" s="1"/>
+      <c r="W3" s="1"/>
+      <c r="X3" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="W3" s="1"/>
-      <c r="X3" s="1"/>
       <c r="Y3" s="1"/>
       <c r="Z3" s="1"/>
-      <c r="AA3" s="1" t="s">
-        <v>45</v>
-      </c>
+      <c r="AA3" s="1"/>
       <c r="AB3" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="AC3" s="1"/>
       <c r="AD3" s="1"/>
       <c r="AE3" s="1"/>
       <c r="AF3" s="1"/>
       <c r="AG3" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="AH3" s="1" t="s">
         <v>45</v>
-      </c>
-      <c r="AH3" s="1" t="s">
-        <v>46</v>
       </c>
       <c r="AI3" s="1"/>
       <c r="AJ3" s="1"/>
       <c r="AK3" s="1"/>
       <c r="AL3" s="1"/>
       <c r="AM3" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="AN3" s="1"/>
       <c r="AO3" s="1"/>
       <c r="AP3" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="AQ3" s="1"/>
       <c r="AR3" s="1"/>
       <c r="AS3" s="1"/>
       <c r="AT3" s="1"/>
       <c r="AU3" s="1" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="AV3" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="AW3" s="1"/>
       <c r="AX3" s="1"/>
@@ -15917,21 +15918,21 @@
       <c r="BA3" s="1"/>
       <c r="BB3" s="1"/>
       <c r="BC3" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="BD3" s="1"/>
       <c r="BE3" s="1"/>
       <c r="BF3" s="1" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="BG3" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="BH3" s="1"/>
       <c r="BI3" s="1"/>
       <c r="BJ3" s="1"/>
       <c r="BK3" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="BL3" s="1"/>
       <c r="BM3" s="1"/>
@@ -15939,7 +15940,7 @@
       <c r="BO3" s="1"/>
       <c r="BP3" s="1"/>
       <c r="BQ3" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="BR3" s="1"/>
       <c r="BS3" s="1"/>
@@ -15947,7 +15948,7 @@
       <c r="BU3" s="1"/>
       <c r="BV3" s="1"/>
       <c r="BW3" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="BX3" s="1"/>
       <c r="BY3" s="1"/>
@@ -15955,7 +15956,7 @@
       <c r="CA3" s="1"/>
       <c r="CB3" s="1"/>
       <c r="CC3" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="CD3" s="1"/>
       <c r="CE3" s="1"/>
@@ -15963,7 +15964,7 @@
       <c r="CG3" s="1"/>
       <c r="CH3" s="1"/>
       <c r="CI3" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="CJ3" s="1"/>
       <c r="CK3" s="1"/>
@@ -15977,7 +15978,7 @@
       <c r="CS3" s="1"/>
       <c r="CT3" s="1"/>
       <c r="CU3" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="CV3" s="1"/>
       <c r="CW3" s="1"/>
@@ -16023,12 +16024,12 @@
       <c r="EC3" s="1"/>
       <c r="ED3" s="1"/>
       <c r="EE3" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="EF3" s="1"/>
       <c r="EG3" s="1"/>
       <c r="EH3" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="EI3" s="1"/>
       <c r="EJ3" s="1"/>
@@ -16068,7 +16069,7 @@
       <c r="FJ3" s="1"/>
       <c r="FK3" s="1"/>
       <c r="FL3" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="FM3" s="1"/>
       <c r="FN3" s="1"/>
@@ -16082,24 +16083,24 @@
       <c r="FT3" s="1"/>
       <c r="FU3" s="1"/>
       <c r="FV3" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="FW3" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="FX3" s="1"/>
       <c r="FY3" s="1"/>
       <c r="FZ3" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="GA3" s="1"/>
       <c r="GB3" s="1"/>
       <c r="GC3" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="GD3" s="1"/>
       <c r="GE3" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="GF3" s="1"/>
       <c r="GG3" s="1"/>
@@ -16109,16 +16110,16 @@
       <c r="GK3" s="1"/>
       <c r="GL3" s="1"/>
       <c r="GM3" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="GN3" s="1" t="s">
         <v>58</v>
-      </c>
-      <c r="GN3" s="1" t="s">
-        <v>59</v>
       </c>
       <c r="GO3" s="1"/>
       <c r="GP3" s="1"/>
       <c r="GQ3" s="1"/>
       <c r="GR3" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="GS3" s="1"/>
       <c r="GT3" s="1"/>
@@ -16126,7 +16127,7 @@
         <v>34</v>
       </c>
       <c r="GV3" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="GW3" s="1"/>
       <c r="GX3" s="1"/>
@@ -16140,7 +16141,7 @@
       <c r="HF3" s="1"/>
       <c r="HG3" s="1"/>
       <c r="HH3" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="HI3" s="1"/>
       <c r="HJ3" s="1"/>
@@ -16157,7 +16158,7 @@
       <c r="HU3" s="1"/>
       <c r="HV3" s="1"/>
       <c r="HW3" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="HX3" s="1"/>
       <c r="HY3" s="1"/>
@@ -16203,7 +16204,7 @@
       <c r="JM3" s="1"/>
       <c r="JN3" s="1"/>
       <c r="JO3" s="1" t="s">
-        <v>42</v>
+        <v>69</v>
       </c>
       <c r="JP3" s="1"/>
       <c r="JQ3" s="1"/>
@@ -16285,22 +16286,22 @@
       <c r="S4" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="T4" s="1"/>
-      <c r="U4" s="1"/>
-      <c r="V4" s="1" t="s">
+      <c r="T4" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="W4" s="1" t="s">
+      <c r="U4" s="1" t="s">
         <v>93</v>
       </c>
+      <c r="V4" s="1"/>
+      <c r="W4" s="1"/>
       <c r="X4" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="Y4" s="1"/>
+        <v>94</v>
+      </c>
+      <c r="Y4" s="1" t="s">
+        <v>93</v>
+      </c>
       <c r="Z4" s="1"/>
-      <c r="AA4" s="1" t="s">
-        <v>94</v>
-      </c>
+      <c r="AA4" s="1"/>
       <c r="AB4" s="1" t="s">
         <v>95</v>
       </c>
@@ -16407,47 +16408,47 @@
         <v>125</v>
       </c>
       <c r="BK4" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="BL4" s="1"/>
       <c r="BM4" s="1"/>
       <c r="BN4" s="1"/>
       <c r="BO4" s="1"/>
       <c r="BP4" s="1" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="BQ4" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="BR4" s="1"/>
       <c r="BS4" s="1"/>
       <c r="BT4" s="1"/>
       <c r="BU4" s="1"/>
       <c r="BV4" s="1" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="BW4" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="BX4" s="1"/>
       <c r="BY4" s="1"/>
       <c r="BZ4" s="1"/>
       <c r="CA4" s="1"/>
       <c r="CB4" s="1" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="CC4" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="CD4" s="1"/>
       <c r="CE4" s="1"/>
       <c r="CF4" s="1"/>
       <c r="CG4" s="1"/>
       <c r="CH4" s="1" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="CI4" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="CJ4" s="1"/>
       <c r="CK4" s="1"/>
@@ -16455,10 +16456,10 @@
       <c r="CM4" s="1"/>
       <c r="CN4" s="1"/>
       <c r="CO4" s="1" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="CP4" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="CQ4" s="1"/>
       <c r="CR4" s="1"/>
@@ -16573,7 +16574,7 @@
         <v>153</v>
       </c>
       <c r="EG4" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="EH4" s="1" t="s">
         <v>154</v>
@@ -16775,7 +16776,7 @@
       <c r="HC4" s="1"/>
       <c r="HD4" s="1"/>
       <c r="HE4" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="HF4" s="1"/>
       <c r="HG4" s="1"/>
@@ -16800,7 +16801,7 @@
       <c r="HR4" s="1"/>
       <c r="HS4" s="1"/>
       <c r="HT4" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="HU4" s="1"/>
       <c r="HV4" s="1"/>
@@ -16967,31 +16968,31 @@
         <v>226</v>
       </c>
       <c r="S5" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="T5" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="U5" s="1" t="s">
         <v>227</v>
       </c>
-      <c r="T5" s="1" t="s">
+      <c r="V5" s="1" t="s">
         <v>228</v>
       </c>
-      <c r="U5" s="1" t="s">
+      <c r="W5" s="1" t="s">
         <v>229</v>
       </c>
-      <c r="V5" s="1" t="s">
+      <c r="X5" s="1" t="s">
         <v>226</v>
       </c>
-      <c r="W5" s="1" t="s">
-        <v>226</v>
-      </c>
-      <c r="X5" s="1" t="s">
+      <c r="Y5" s="1" t="s">
         <v>227</v>
       </c>
-      <c r="Y5" s="1" t="s">
+      <c r="Z5" s="1" t="s">
         <v>228</v>
       </c>
-      <c r="Z5" s="1" t="s">
+      <c r="AA5" s="1" t="s">
         <v>229</v>
-      </c>
-      <c r="AA5" s="1" t="s">
-        <v>226</v>
       </c>
       <c r="AB5" s="1" t="s">
         <v>226</v>
@@ -17863,16 +17864,16 @@
         <v>0</v>
       </c>
       <c r="S7">
+        <v>5</v>
+      </c>
+      <c r="T7">
+        <v>0</v>
+      </c>
+      <c r="U7">
         <v>2</v>
       </c>
-      <c r="T7">
+      <c r="V7">
         <v>6</v>
-      </c>
-      <c r="U7">
-        <v>0</v>
-      </c>
-      <c r="V7">
-        <v>5</v>
       </c>
       <c r="W7">
         <v>0</v>
@@ -18759,16 +18760,16 @@
         <v>0</v>
       </c>
       <c r="S8">
+        <v>5</v>
+      </c>
+      <c r="T8">
+        <v>0</v>
+      </c>
+      <c r="U8">
         <v>2</v>
       </c>
-      <c r="T8">
+      <c r="V8">
         <v>6</v>
-      </c>
-      <c r="U8">
-        <v>0</v>
-      </c>
-      <c r="V8">
-        <v>5</v>
       </c>
       <c r="W8">
         <v>0</v>
@@ -19655,13 +19656,13 @@
         <v>0</v>
       </c>
       <c r="S9">
+        <v>7</v>
+      </c>
+      <c r="T9">
+        <v>0</v>
+      </c>
+      <c r="U9">
         <v>4</v>
-      </c>
-      <c r="T9">
-        <v>7</v>
-      </c>
-      <c r="U9">
-        <v>0</v>
       </c>
       <c r="V9">
         <v>7</v>
@@ -20551,16 +20552,16 @@
         <v>0</v>
       </c>
       <c r="S10">
+        <v>7</v>
+      </c>
+      <c r="T10">
+        <v>0</v>
+      </c>
+      <c r="U10">
         <v>3</v>
       </c>
-      <c r="T10">
+      <c r="V10">
         <v>4</v>
-      </c>
-      <c r="U10">
-        <v>0</v>
-      </c>
-      <c r="V10">
-        <v>7</v>
       </c>
       <c r="W10">
         <v>0</v>
@@ -21447,16 +21448,16 @@
         <v>0</v>
       </c>
       <c r="S11">
+        <v>5</v>
+      </c>
+      <c r="T11">
+        <v>0</v>
+      </c>
+      <c r="U11">
         <v>2</v>
       </c>
-      <c r="T11">
+      <c r="V11">
         <v>6</v>
-      </c>
-      <c r="U11">
-        <v>0</v>
-      </c>
-      <c r="V11">
-        <v>5</v>
       </c>
       <c r="W11">
         <v>0</v>
@@ -22343,13 +22344,13 @@
         <v>0</v>
       </c>
       <c r="S12">
+        <v>6</v>
+      </c>
+      <c r="T12">
+        <v>0</v>
+      </c>
+      <c r="U12">
         <v>4</v>
-      </c>
-      <c r="T12">
-        <v>6</v>
-      </c>
-      <c r="U12">
-        <v>0</v>
       </c>
       <c r="V12">
         <v>6</v>
@@ -23239,19 +23240,19 @@
         <v>0</v>
       </c>
       <c r="S13">
+        <v>10</v>
+      </c>
+      <c r="T13">
+        <v>1</v>
+      </c>
+      <c r="U13">
         <v>2</v>
       </c>
-      <c r="T13">
+      <c r="V13">
         <v>13</v>
       </c>
-      <c r="U13">
-        <v>0</v>
-      </c>
-      <c r="V13">
-        <v>10</v>
-      </c>
       <c r="W13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X13">
         <v>0</v>
@@ -24135,16 +24136,16 @@
         <v>0</v>
       </c>
       <c r="S14">
+        <v>7</v>
+      </c>
+      <c r="T14">
+        <v>0</v>
+      </c>
+      <c r="U14">
         <v>5</v>
       </c>
-      <c r="T14">
+      <c r="V14">
         <v>16</v>
-      </c>
-      <c r="U14">
-        <v>0</v>
-      </c>
-      <c r="V14">
-        <v>7</v>
       </c>
       <c r="W14">
         <v>0</v>
@@ -25031,28 +25032,28 @@
         <v>0</v>
       </c>
       <c r="S15">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="T15">
+        <v>1</v>
+      </c>
+      <c r="U15">
+        <v>1</v>
+      </c>
+      <c r="V15">
         <v>7</v>
       </c>
-      <c r="U15">
-        <v>0</v>
-      </c>
-      <c r="V15">
-        <v>9</v>
-      </c>
       <c r="W15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X15">
         <v>0</v>
       </c>
       <c r="Y15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA15">
         <v>0</v>
@@ -25927,16 +25928,16 @@
         <v>0</v>
       </c>
       <c r="S16">
+        <v>5</v>
+      </c>
+      <c r="T16">
+        <v>0</v>
+      </c>
+      <c r="U16">
         <v>3</v>
       </c>
-      <c r="T16">
+      <c r="V16">
         <v>9</v>
-      </c>
-      <c r="U16">
-        <v>0</v>
-      </c>
-      <c r="V16">
-        <v>5</v>
       </c>
       <c r="W16">
         <v>0</v>
@@ -26823,16 +26824,16 @@
         <v>0</v>
       </c>
       <c r="S17">
+        <v>6</v>
+      </c>
+      <c r="T17">
+        <v>0</v>
+      </c>
+      <c r="U17">
         <v>3</v>
       </c>
-      <c r="T17">
+      <c r="V17">
         <v>11</v>
-      </c>
-      <c r="U17">
-        <v>0</v>
-      </c>
-      <c r="V17">
-        <v>6</v>
       </c>
       <c r="W17">
         <v>0</v>
@@ -27719,19 +27720,19 @@
         <v>0</v>
       </c>
       <c r="S18">
+        <v>7</v>
+      </c>
+      <c r="T18">
+        <v>1</v>
+      </c>
+      <c r="U18">
         <v>3</v>
       </c>
-      <c r="T18">
+      <c r="V18">
         <v>18</v>
       </c>
-      <c r="U18">
-        <v>0</v>
-      </c>
-      <c r="V18">
-        <v>7</v>
-      </c>
       <c r="W18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X18">
         <v>0</v>
@@ -28560,7 +28561,7 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="110">
+  <mergeCells count="111">
     <mergeCell ref="B1:EV1"/>
     <mergeCell ref="GU1:KL1"/>
     <mergeCell ref="FC1:GT1"/>
@@ -28587,11 +28588,11 @@
     <mergeCell ref="J3:K3"/>
     <mergeCell ref="L3:M3"/>
     <mergeCell ref="EK3:EM3"/>
-    <mergeCell ref="N3:U3"/>
+    <mergeCell ref="N3:R3"/>
     <mergeCell ref="EN3:EV3"/>
     <mergeCell ref="FS3:FU3"/>
-    <mergeCell ref="JO3:KL3"/>
-    <mergeCell ref="V3:Z3"/>
+    <mergeCell ref="S3:W3"/>
+    <mergeCell ref="X3:AA3"/>
     <mergeCell ref="EW3:FB3"/>
     <mergeCell ref="AB3:AF3"/>
     <mergeCell ref="FC3:FK3"/>
@@ -28620,12 +28621,13 @@
     <mergeCell ref="GE3:GL3"/>
     <mergeCell ref="CU3:DA3"/>
     <mergeCell ref="HW3:JN3"/>
+    <mergeCell ref="JO3:KL3"/>
     <mergeCell ref="DB3:DR3"/>
     <mergeCell ref="DS3:DV3"/>
     <mergeCell ref="DW3:DX3"/>
     <mergeCell ref="DY3:ED3"/>
-    <mergeCell ref="S4:U4"/>
-    <mergeCell ref="X4:Z4"/>
+    <mergeCell ref="U4:W4"/>
+    <mergeCell ref="Y4:AA4"/>
     <mergeCell ref="BK4:BO4"/>
     <mergeCell ref="BQ4:BU4"/>
     <mergeCell ref="BW4:CA4"/>

--- a/NRHM/Maharashtra/Nagpur/2015-16/Scripts/Preprocessing/Output/Cleaned/KAMPTEE/PHC - Summary.xlsx
+++ b/NRHM/Maharashtra/Nagpur/2015-16/Scripts/Preprocessing/Output/Cleaned/KAMPTEE/PHC - Summary.xlsx
@@ -167,7 +167,7 @@
     <t>Operation Theatre</t>
   </si>
   <si>
-    <t>Treatement</t>
+    <t>Treatment</t>
   </si>
   <si>
     <t>Outpatient</t>
